--- a/biology/Botanique/Anthemis_aetnensis/Anthemis_aetnensis.xlsx
+++ b/biology/Botanique/Anthemis_aetnensis/Anthemis_aetnensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anthemis aetnensis, la camomille de l'Etna, est une espèce de plante à fleurs de la famille des Asteraceae, endémique de Sicile[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthemis aetnensis, la camomille de l'Etna, est une espèce de plante à fleurs de la famille des Asteraceae, endémique de Sicile.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthemis aetnensis est une plante vivace, de 10 à 30 cm de haut, comportant une tige ligneuse à la base. La plante très ramifiée forme de petits coussins en altitude sur les pentes de l'Etna parfois en association (Rumici-Anthemidetum aetnensis) avec l'astragale de Sicile (Astracantha sicula).
 Les feuilles sont pennatiséquées, de 2 à 3 cm de long, charnues, tomenteuses et de couleur grisâtre.
@@ -545,10 +559,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La camomille de l'Etna croît sur les pentes de l'Etna, sur des sols de sables volcaniques, entre 1800 et 2 400 m.
-C'est une des dix espèces endémiques de l'Etna[1].
+C'est une des dix espèces endémiques de l'Etna.
 </t>
         </is>
       </c>
